--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Ecm1-Itgb4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Ecm1-Itgb4.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>7.280961333333334</v>
+        <v>6.325823666666667</v>
       </c>
       <c r="H2">
-        <v>21.842884</v>
+        <v>18.977471</v>
       </c>
       <c r="I2">
-        <v>0.04342075424616227</v>
+        <v>0.03655606111596783</v>
       </c>
       <c r="J2">
-        <v>0.04516746398185793</v>
+        <v>0.0371094793300862</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.842814000000001</v>
+        <v>6.038588</v>
       </c>
       <c r="N2">
-        <v>17.528442</v>
+        <v>18.115764</v>
       </c>
       <c r="O2">
-        <v>0.388476337726801</v>
+        <v>0.4832124175152646</v>
       </c>
       <c r="P2">
-        <v>0.4529856526976698</v>
+        <v>0.5250116720691949</v>
       </c>
       <c r="Q2">
-        <v>42.54130281185867</v>
+        <v>38.19904288364933</v>
       </c>
       <c r="R2">
-        <v>382.8717253067281</v>
+        <v>343.791385952844</v>
       </c>
       <c r="S2">
-        <v>0.01686793559088456</v>
+        <v>0.01766434266668258</v>
       </c>
       <c r="T2">
-        <v>0.02046021315252041</v>
+        <v>0.01948290979270578</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>7.280961333333334</v>
+        <v>6.325823666666667</v>
       </c>
       <c r="H3">
-        <v>21.842884</v>
+        <v>18.977471</v>
       </c>
       <c r="I3">
-        <v>0.04342075424616227</v>
+        <v>0.03655606111596783</v>
       </c>
       <c r="J3">
-        <v>0.04516746398185793</v>
+        <v>0.0371094793300862</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>5.911572</v>
       </c>
       <c r="O3">
-        <v>0.1310159705448037</v>
+        <v>0.157682833439183</v>
       </c>
       <c r="P3">
-        <v>0.1527721232091973</v>
+        <v>0.1713228489992161</v>
       </c>
       <c r="Q3">
-        <v>14.34730905040533</v>
+        <v>12.46518735493467</v>
       </c>
       <c r="R3">
-        <v>129.125781453648</v>
+        <v>112.186686194412</v>
       </c>
       <c r="S3">
-        <v>0.005688812259348357</v>
+        <v>0.00576426329614175</v>
       </c>
       <c r="T3">
-        <v>0.006900329372483382</v>
+        <v>0.006357701723707888</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>7.280961333333334</v>
+        <v>6.325823666666667</v>
       </c>
       <c r="H4">
-        <v>21.842884</v>
+        <v>18.977471</v>
       </c>
       <c r="I4">
-        <v>0.04342075424616227</v>
+        <v>0.03655606111596783</v>
       </c>
       <c r="J4">
-        <v>0.04516746398185793</v>
+        <v>0.0371094793300862</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.5327236666666667</v>
+        <v>0.6106236666666667</v>
       </c>
       <c r="N4">
-        <v>1.598171</v>
+        <v>1.831871</v>
       </c>
       <c r="O4">
-        <v>0.03541966919485367</v>
+        <v>0.04886257154189607</v>
       </c>
       <c r="P4">
-        <v>0.04130136229777225</v>
+        <v>0.05308932357062435</v>
       </c>
       <c r="Q4">
-        <v>3.878740418351556</v>
+        <v>3.862697642026778</v>
       </c>
       <c r="R4">
-        <v>34.908663765164</v>
+        <v>34.764278778241</v>
       </c>
       <c r="S4">
-        <v>0.001537948751590105</v>
+        <v>0.001786223151568903</v>
       </c>
       <c r="T4">
-        <v>0.001865477793986293</v>
+        <v>0.001970117155692343</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>7.280961333333334</v>
+        <v>6.325823666666667</v>
       </c>
       <c r="H5">
-        <v>21.842884</v>
+        <v>18.977471</v>
       </c>
       <c r="I5">
-        <v>0.04342075424616227</v>
+        <v>0.03655606111596783</v>
       </c>
       <c r="J5">
-        <v>0.04516746398185793</v>
+        <v>0.0371094793300862</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>6.425645</v>
+        <v>2.98482</v>
       </c>
       <c r="N5">
-        <v>12.85129</v>
+        <v>5.96964</v>
       </c>
       <c r="O5">
-        <v>0.4272275374729591</v>
+        <v>0.2388475729836035</v>
       </c>
       <c r="P5">
-        <v>0.3321145135806728</v>
+        <v>0.173005713590172</v>
       </c>
       <c r="Q5">
-        <v>46.78487278672667</v>
+        <v>18.88144499674</v>
       </c>
       <c r="R5">
-        <v>280.70923672036</v>
+        <v>113.28866998044</v>
       </c>
       <c r="S5">
-        <v>0.01855054191180644</v>
+        <v>0.008731326475389194</v>
       </c>
       <c r="T5">
-        <v>0.01500077033000731</v>
+        <v>0.006420151952461301</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,46 +788,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>7.280961333333334</v>
+        <v>6.325823666666667</v>
       </c>
       <c r="H6">
-        <v>21.842884</v>
+        <v>18.977471</v>
       </c>
       <c r="I6">
-        <v>0.04342075424616227</v>
+        <v>0.03655606111596783</v>
       </c>
       <c r="J6">
-        <v>0.04516746398185793</v>
+        <v>0.0371094793300862</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.2686276666666667</v>
+        <v>0.892201</v>
       </c>
       <c r="N6">
-        <v>0.805883</v>
+        <v>2.676603</v>
       </c>
       <c r="O6">
-        <v>0.01786048506058254</v>
+        <v>0.07139460452005281</v>
       </c>
       <c r="P6">
-        <v>0.02082634821468766</v>
+        <v>0.07757044177079274</v>
       </c>
       <c r="Q6">
-        <v>1.955867654063556</v>
+        <v>5.643906201223667</v>
       </c>
       <c r="R6">
-        <v>17.602808886572</v>
+        <v>50.795155811013</v>
       </c>
       <c r="S6">
-        <v>0.000775515732532807</v>
+        <v>0.002609905526185403</v>
       </c>
       <c r="T6">
-        <v>0.0009406733328605362</v>
+        <v>0.002878598705518889</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>232.963077</v>
       </c>
       <c r="I7">
-        <v>0.4630996765283732</v>
+        <v>0.4487538134336191</v>
       </c>
       <c r="J7">
-        <v>0.4817290331029682</v>
+        <v>0.4555474483720607</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.842814000000001</v>
+        <v>6.038588</v>
       </c>
       <c r="N7">
-        <v>17.528442</v>
+        <v>18.115764</v>
       </c>
       <c r="O7">
-        <v>0.388476337726801</v>
+        <v>0.4832124175152646</v>
       </c>
       <c r="P7">
-        <v>0.4529856526976698</v>
+        <v>0.5250116720691949</v>
       </c>
       <c r="Q7">
-        <v>453.719975926226</v>
+        <v>468.922680405092</v>
       </c>
       <c r="R7">
-        <v>4083.479783336034</v>
+        <v>4220.304123645828</v>
       </c>
       <c r="S7">
-        <v>0.1799032663402086</v>
+        <v>0.2168434150584531</v>
       </c>
       <c r="T7">
-        <v>0.2182163404835654</v>
+        <v>0.2391677275766708</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>232.963077</v>
       </c>
       <c r="I8">
-        <v>0.4630996765283732</v>
+        <v>0.4487538134336191</v>
       </c>
       <c r="J8">
-        <v>0.4817290331029682</v>
+        <v>0.4555474483720607</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>5.911572</v>
       </c>
       <c r="O8">
-        <v>0.1310159705448037</v>
+        <v>0.157682833439183</v>
       </c>
       <c r="P8">
-        <v>0.1527721232091973</v>
+        <v>0.1713228489992161</v>
       </c>
       <c r="Q8">
         <v>153.019778114116</v>
@@ -948,10 +948,10 @@
         <v>1377.178003027044</v>
       </c>
       <c r="S8">
-        <v>0.06067345357934947</v>
+        <v>0.07076077281885158</v>
       </c>
       <c r="T8">
-        <v>0.07359476719865415</v>
+        <v>0.07804568670942473</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>232.963077</v>
       </c>
       <c r="I9">
-        <v>0.4630996765283732</v>
+        <v>0.4487538134336191</v>
       </c>
       <c r="J9">
-        <v>0.4817290331029682</v>
+        <v>0.4555474483720607</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.5327236666666667</v>
+        <v>0.6106236666666667</v>
       </c>
       <c r="N9">
-        <v>1.598171</v>
+        <v>1.831871</v>
       </c>
       <c r="O9">
-        <v>0.03541966919485367</v>
+        <v>0.04886257154189607</v>
       </c>
       <c r="P9">
-        <v>0.04130136229777225</v>
+        <v>0.05308932357062435</v>
       </c>
       <c r="Q9">
-        <v>41.36831485912967</v>
+        <v>47.41758942522966</v>
       </c>
       <c r="R9">
-        <v>372.314833732167</v>
+        <v>426.758304827067</v>
       </c>
       <c r="S9">
-        <v>0.01640283734687872</v>
+        <v>0.0219272653135989</v>
       </c>
       <c r="T9">
-        <v>0.01989606532554121</v>
+        <v>0.02418470588839662</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>232.963077</v>
       </c>
       <c r="I10">
-        <v>0.4630996765283732</v>
+        <v>0.4487538134336191</v>
       </c>
       <c r="J10">
-        <v>0.4817290331029682</v>
+        <v>0.4555474483720607</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>6.425645</v>
+        <v>2.98482</v>
       </c>
       <c r="N10">
-        <v>12.85129</v>
+        <v>5.96964</v>
       </c>
       <c r="O10">
-        <v>0.4272275374729591</v>
+        <v>0.2388475729836035</v>
       </c>
       <c r="P10">
-        <v>0.3321145135806728</v>
+        <v>0.173005713590172</v>
       </c>
       <c r="Q10">
-        <v>498.979343636555</v>
+        <v>231.78428383038</v>
       </c>
       <c r="R10">
-        <v>2993.87606181933</v>
+        <v>1390.70570298228</v>
       </c>
       <c r="S10">
-        <v>0.1978489344077408</v>
+        <v>0.1071837592057567</v>
       </c>
       <c r="T10">
-        <v>0.1599892035066801</v>
+        <v>0.07881231137979039</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,40 +1104,40 @@
         <v>232.963077</v>
       </c>
       <c r="I11">
-        <v>0.4630996765283732</v>
+        <v>0.4487538134336191</v>
       </c>
       <c r="J11">
-        <v>0.4817290331029682</v>
+        <v>0.4555474483720607</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.2686276666666667</v>
+        <v>0.892201</v>
       </c>
       <c r="N11">
-        <v>0.805883</v>
+        <v>2.676603</v>
       </c>
       <c r="O11">
-        <v>0.01786048506058254</v>
+        <v>0.07139460452005281</v>
       </c>
       <c r="P11">
-        <v>0.02082634821468766</v>
+        <v>0.07757044177079274</v>
       </c>
       <c r="Q11">
-        <v>20.86010926466567</v>
+        <v>69.283296754159</v>
       </c>
       <c r="R11">
-        <v>187.740983381991</v>
+        <v>623.549670787431</v>
       </c>
       <c r="S11">
-        <v>0.008271184854195614</v>
+        <v>0.0320386010369588</v>
       </c>
       <c r="T11">
-        <v>0.01003265658852722</v>
+        <v>0.03533701681777814</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>25.5988</v>
+        <v>31.09589533333333</v>
       </c>
       <c r="H12">
-        <v>76.79640000000001</v>
+        <v>93.28768600000001</v>
       </c>
       <c r="I12">
-        <v>0.1526610502253263</v>
+        <v>0.1796988835226367</v>
       </c>
       <c r="J12">
-        <v>0.1588022273494816</v>
+        <v>0.1824193252814652</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>5.842814000000001</v>
+        <v>6.038588</v>
       </c>
       <c r="N12">
-        <v>17.528442</v>
+        <v>18.115764</v>
       </c>
       <c r="O12">
-        <v>0.388476337726801</v>
+        <v>0.4832124175152646</v>
       </c>
       <c r="P12">
-        <v>0.4529856526976698</v>
+        <v>0.5250116720691949</v>
       </c>
       <c r="Q12">
-        <v>149.5690270232</v>
+        <v>187.7753004091227</v>
       </c>
       <c r="R12">
-        <v>1346.1212432088</v>
+        <v>1689.977703682104</v>
       </c>
       <c r="S12">
-        <v>0.05930520570506199</v>
+        <v>0.08683273193176724</v>
       </c>
       <c r="T12">
-        <v>0.07193513060574869</v>
+        <v>0.09577227498375637</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>25.5988</v>
+        <v>31.09589533333333</v>
       </c>
       <c r="H13">
-        <v>76.79640000000001</v>
+        <v>93.28768600000001</v>
       </c>
       <c r="I13">
-        <v>0.1526610502253263</v>
+        <v>0.1796988835226367</v>
       </c>
       <c r="J13">
-        <v>0.1588022273494816</v>
+        <v>0.1824193252814652</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>5.911572</v>
       </c>
       <c r="O13">
-        <v>0.1310159705448037</v>
+        <v>0.157682833439183</v>
       </c>
       <c r="P13">
-        <v>0.1527721232091973</v>
+        <v>0.1713228489992161</v>
       </c>
       <c r="Q13">
-        <v>50.4430497712</v>
+        <v>61.27520805582134</v>
       </c>
       <c r="R13">
-        <v>453.9874479408</v>
+        <v>551.476872502392</v>
       </c>
       <c r="S13">
-        <v>0.02000103565966015</v>
+        <v>0.02833542911970708</v>
       </c>
       <c r="T13">
-        <v>0.02426055344252997</v>
+        <v>0.03125259851973533</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>25.5988</v>
+        <v>31.09589533333333</v>
       </c>
       <c r="H14">
-        <v>76.79640000000001</v>
+        <v>93.28768600000001</v>
       </c>
       <c r="I14">
-        <v>0.1526610502253263</v>
+        <v>0.1796988835226367</v>
       </c>
       <c r="J14">
-        <v>0.1588022273494816</v>
+        <v>0.1824193252814652</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.5327236666666667</v>
+        <v>0.6106236666666667</v>
       </c>
       <c r="N14">
-        <v>1.598171</v>
+        <v>1.831871</v>
       </c>
       <c r="O14">
-        <v>0.03541966919485367</v>
+        <v>0.04886257154189607</v>
       </c>
       <c r="P14">
-        <v>0.04130136229777225</v>
+        <v>0.05308932357062435</v>
       </c>
       <c r="Q14">
-        <v>13.63708659826667</v>
+        <v>18.98788962672289</v>
       </c>
       <c r="R14">
-        <v>122.7337793844</v>
+        <v>170.891006640506</v>
       </c>
       <c r="S14">
-        <v>0.005407203897919999</v>
+        <v>0.008780549552123686</v>
       </c>
       <c r="T14">
-        <v>0.006558748325454137</v>
+        <v>0.009684518585402679</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>25.5988</v>
+        <v>31.09589533333333</v>
       </c>
       <c r="H15">
-        <v>76.79640000000001</v>
+        <v>93.28768600000001</v>
       </c>
       <c r="I15">
-        <v>0.1526610502253263</v>
+        <v>0.1796988835226367</v>
       </c>
       <c r="J15">
-        <v>0.1588022273494816</v>
+        <v>0.1824193252814652</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>6.425645</v>
+        <v>2.98482</v>
       </c>
       <c r="N15">
-        <v>12.85129</v>
+        <v>5.96964</v>
       </c>
       <c r="O15">
-        <v>0.4272275374729591</v>
+        <v>0.2388475729836035</v>
       </c>
       <c r="P15">
-        <v>0.3321145135806728</v>
+        <v>0.173005713590172</v>
       </c>
       <c r="Q15">
-        <v>164.488801226</v>
+        <v>92.81565030884001</v>
       </c>
       <c r="R15">
-        <v>986.9328073560001</v>
+        <v>556.89390185304</v>
       </c>
       <c r="S15">
-        <v>0.06522100455580189</v>
+        <v>0.04292064219724503</v>
       </c>
       <c r="T15">
-        <v>0.05274052449170051</v>
+        <v>0.03155958554295758</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,46 +1408,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>25.5988</v>
+        <v>31.09589533333333</v>
       </c>
       <c r="H16">
-        <v>76.79640000000001</v>
+        <v>93.28768600000001</v>
       </c>
       <c r="I16">
-        <v>0.1526610502253263</v>
+        <v>0.1796988835226367</v>
       </c>
       <c r="J16">
-        <v>0.1588022273494816</v>
+        <v>0.1824193252814652</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.2686276666666667</v>
+        <v>0.892201</v>
       </c>
       <c r="N16">
-        <v>0.805883</v>
+        <v>2.676603</v>
       </c>
       <c r="O16">
-        <v>0.01786048506058254</v>
+        <v>0.07139460452005281</v>
       </c>
       <c r="P16">
-        <v>0.02082634821468766</v>
+        <v>0.07757044177079274</v>
       </c>
       <c r="Q16">
-        <v>6.876545913466667</v>
+        <v>27.74378891229534</v>
       </c>
       <c r="R16">
-        <v>61.88891322120001</v>
+        <v>249.694100210658</v>
       </c>
       <c r="S16">
-        <v>0.002726600406882281</v>
+        <v>0.01282953072179368</v>
       </c>
       <c r="T16">
-        <v>0.003307270484048301</v>
+        <v>0.01415034764961319</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>19.4539435</v>
+        <v>7.741899500000001</v>
       </c>
       <c r="H17">
-        <v>38.907887</v>
+        <v>15.483799</v>
       </c>
       <c r="I17">
-        <v>0.116015572828967</v>
+        <v>0.04473936773909665</v>
       </c>
       <c r="J17">
-        <v>0.08045506191777141</v>
+        <v>0.0302777814252336</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>5.842814000000001</v>
+        <v>6.038588</v>
       </c>
       <c r="N17">
-        <v>17.528442</v>
+        <v>18.115764</v>
       </c>
       <c r="O17">
-        <v>0.388476337726801</v>
+        <v>0.4832124175152646</v>
       </c>
       <c r="P17">
-        <v>0.4529856526976698</v>
+        <v>0.5250116720691949</v>
       </c>
       <c r="Q17">
-        <v>113.665773437009</v>
+        <v>46.750141417906</v>
       </c>
       <c r="R17">
-        <v>681.9946406220541</v>
+        <v>280.500848507436</v>
       </c>
       <c r="S17">
-        <v>0.04506930485187406</v>
+        <v>0.02161861804331333</v>
       </c>
       <c r="T17">
-        <v>0.03644498873565312</v>
+        <v>0.0158961886526075</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>19.4539435</v>
+        <v>7.741899500000001</v>
       </c>
       <c r="H18">
-        <v>38.907887</v>
+        <v>15.483799</v>
       </c>
       <c r="I18">
-        <v>0.116015572828967</v>
+        <v>0.04473936773909665</v>
       </c>
       <c r="J18">
-        <v>0.08045506191777141</v>
+        <v>0.0302777814252336</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>5.911572</v>
       </c>
       <c r="O18">
-        <v>0.1310159705448037</v>
+        <v>0.157682833439183</v>
       </c>
       <c r="P18">
-        <v>0.1527721232091973</v>
+        <v>0.1713228489992161</v>
       </c>
       <c r="Q18">
-        <v>38.334462561394</v>
+        <v>15.255598770338</v>
       </c>
       <c r="R18">
-        <v>230.006775368364</v>
+        <v>91.533592622028</v>
       </c>
       <c r="S18">
-        <v>0.01519989287249847</v>
+        <v>0.007054630271378335</v>
       </c>
       <c r="T18">
-        <v>0.01229129063210537</v>
+        <v>0.005187275775146566</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>19.4539435</v>
+        <v>7.741899500000001</v>
       </c>
       <c r="H19">
-        <v>38.907887</v>
+        <v>15.483799</v>
       </c>
       <c r="I19">
-        <v>0.116015572828967</v>
+        <v>0.04473936773909665</v>
       </c>
       <c r="J19">
-        <v>0.08045506191777141</v>
+        <v>0.0302777814252336</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.5327236666666667</v>
+        <v>0.6106236666666667</v>
       </c>
       <c r="N19">
-        <v>1.598171</v>
+        <v>1.831871</v>
       </c>
       <c r="O19">
-        <v>0.03541966919485367</v>
+        <v>0.04886257154189607</v>
       </c>
       <c r="P19">
-        <v>0.04130136229777225</v>
+        <v>0.05308932357062435</v>
       </c>
       <c r="Q19">
-        <v>10.36357611244617</v>
+        <v>4.727387059654834</v>
       </c>
       <c r="R19">
-        <v>62.181456674677</v>
+        <v>28.364322357929</v>
       </c>
       <c r="S19">
-        <v>0.004109233211053464</v>
+        <v>0.002186080556890807</v>
       </c>
       <c r="T19">
-        <v>0.003322903660955576</v>
+        <v>0.001607426935084866</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>19.4539435</v>
+        <v>7.741899500000001</v>
       </c>
       <c r="H20">
-        <v>38.907887</v>
+        <v>15.483799</v>
       </c>
       <c r="I20">
-        <v>0.116015572828967</v>
+        <v>0.04473936773909665</v>
       </c>
       <c r="J20">
-        <v>0.08045506191777141</v>
+        <v>0.0302777814252336</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>6.425645</v>
+        <v>2.98482</v>
       </c>
       <c r="N20">
-        <v>12.85129</v>
+        <v>5.96964</v>
       </c>
       <c r="O20">
-        <v>0.4272275374729591</v>
+        <v>0.2388475729836035</v>
       </c>
       <c r="P20">
-        <v>0.3321145135806728</v>
+        <v>0.173005713590172</v>
       </c>
       <c r="Q20">
-        <v>125.0041347810575</v>
+        <v>23.10817646559</v>
       </c>
       <c r="R20">
-        <v>500.0165391242301</v>
+        <v>92.43270586236001</v>
       </c>
       <c r="S20">
-        <v>0.04956504748823431</v>
+        <v>0.01068588940130416</v>
       </c>
       <c r="T20">
-        <v>0.02672029375392357</v>
+        <v>0.005238229181399794</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,46 +1718,46 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>19.4539435</v>
+        <v>7.741899500000001</v>
       </c>
       <c r="H21">
-        <v>38.907887</v>
+        <v>15.483799</v>
       </c>
       <c r="I21">
-        <v>0.116015572828967</v>
+        <v>0.04473936773909665</v>
       </c>
       <c r="J21">
-        <v>0.08045506191777141</v>
+        <v>0.0302777814252336</v>
       </c>
       <c r="K21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L21">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M21">
-        <v>0.2686276666666667</v>
+        <v>0.892201</v>
       </c>
       <c r="N21">
-        <v>0.805883</v>
+        <v>2.676603</v>
       </c>
       <c r="O21">
-        <v>0.01786048506058254</v>
+        <v>0.07139460452005281</v>
       </c>
       <c r="P21">
-        <v>0.02082634821468766</v>
+        <v>0.07757044177079274</v>
       </c>
       <c r="Q21">
-        <v>5.225867449870167</v>
+        <v>6.907330475799501</v>
       </c>
       <c r="R21">
-        <v>31.355204699221</v>
+        <v>41.44398285479701</v>
       </c>
       <c r="S21">
-        <v>0.00207209440530669</v>
+        <v>0.003194149466210014</v>
       </c>
       <c r="T21">
-        <v>0.001675585135133764</v>
+        <v>0.002348660880994873</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>37.69583433333333</v>
+        <v>50.22647733333333</v>
       </c>
       <c r="H22">
-        <v>113.087503</v>
+        <v>150.679432</v>
       </c>
       <c r="I22">
-        <v>0.2248029461711713</v>
+        <v>0.2902518741886796</v>
       </c>
       <c r="J22">
-        <v>0.2338462136479208</v>
+        <v>0.2946459655911543</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>5.842814000000001</v>
+        <v>6.038588</v>
       </c>
       <c r="N22">
-        <v>17.528442</v>
+        <v>18.115764</v>
       </c>
       <c r="O22">
-        <v>0.388476337726801</v>
+        <v>0.4832124175152646</v>
       </c>
       <c r="P22">
-        <v>0.4529856526976698</v>
+        <v>0.5250116720691949</v>
       </c>
       <c r="Q22">
-        <v>220.2497485844807</v>
+        <v>303.2970033073386</v>
       </c>
       <c r="R22">
-        <v>1982.247737260326</v>
+        <v>2729.673029766047</v>
       </c>
       <c r="S22">
-        <v>0.0873306252387718</v>
+        <v>0.1402533098150483</v>
       </c>
       <c r="T22">
-        <v>0.1059289797201821</v>
+        <v>0.1546925710634544</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>37.69583433333333</v>
+        <v>50.22647733333333</v>
       </c>
       <c r="H23">
-        <v>113.087503</v>
+        <v>150.679432</v>
       </c>
       <c r="I23">
-        <v>0.2248029461711713</v>
+        <v>0.2902518741886796</v>
       </c>
       <c r="J23">
-        <v>0.2338462136479208</v>
+        <v>0.2946459655911543</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>5.911572</v>
       </c>
       <c r="O23">
-        <v>0.1310159705448037</v>
+        <v>0.157682833439183</v>
       </c>
       <c r="P23">
-        <v>0.1527721232091973</v>
+        <v>0.1713228489992161</v>
       </c>
       <c r="Q23">
-        <v>74.28054625385732</v>
+        <v>98.97247902078932</v>
       </c>
       <c r="R23">
-        <v>668.5249162847159</v>
+        <v>890.7523111871039</v>
       </c>
       <c r="S23">
-        <v>0.02945277617394727</v>
+        <v>0.04576773793310428</v>
       </c>
       <c r="T23">
-        <v>0.03572518256342443</v>
+        <v>0.05047958627120154</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>37.69583433333333</v>
+        <v>50.22647733333333</v>
       </c>
       <c r="H24">
-        <v>113.087503</v>
+        <v>150.679432</v>
       </c>
       <c r="I24">
-        <v>0.2248029461711713</v>
+        <v>0.2902518741886796</v>
       </c>
       <c r="J24">
-        <v>0.2338462136479208</v>
+        <v>0.2946459655911543</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.5327236666666667</v>
+        <v>0.6106236666666667</v>
       </c>
       <c r="N24">
-        <v>1.598171</v>
+        <v>1.831871</v>
       </c>
       <c r="O24">
-        <v>0.03541966919485367</v>
+        <v>0.04886257154189607</v>
       </c>
       <c r="P24">
-        <v>0.04130136229777225</v>
+        <v>0.05308932357062435</v>
       </c>
       <c r="Q24">
-        <v>20.08146308411256</v>
+        <v>30.66947575303022</v>
       </c>
       <c r="R24">
-        <v>180.733167757013</v>
+        <v>276.025281777272</v>
       </c>
       <c r="S24">
-        <v>0.007962445987411382</v>
+        <v>0.01418245296771378</v>
       </c>
       <c r="T24">
-        <v>0.009658167191835029</v>
+        <v>0.01564255500604784</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>37.69583433333333</v>
+        <v>50.22647733333333</v>
       </c>
       <c r="H25">
-        <v>113.087503</v>
+        <v>150.679432</v>
       </c>
       <c r="I25">
-        <v>0.2248029461711713</v>
+        <v>0.2902518741886796</v>
       </c>
       <c r="J25">
-        <v>0.2338462136479208</v>
+        <v>0.2946459655911543</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>6.425645</v>
+        <v>2.98482</v>
       </c>
       <c r="N25">
-        <v>12.85129</v>
+        <v>5.96964</v>
       </c>
       <c r="O25">
-        <v>0.4272275374729591</v>
+        <v>0.2388475729836035</v>
       </c>
       <c r="P25">
-        <v>0.3321145135806728</v>
+        <v>0.173005713590172</v>
       </c>
       <c r="Q25">
-        <v>242.2200494048116</v>
+        <v>149.91699407408</v>
       </c>
       <c r="R25">
-        <v>1453.32029642887</v>
+        <v>899.50196444448</v>
       </c>
       <c r="S25">
-        <v>0.09604200910937569</v>
+        <v>0.06932595570390836</v>
       </c>
       <c r="T25">
-        <v>0.0776637214983613</v>
+        <v>0.05097543553356292</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,46 +2028,46 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>37.69583433333333</v>
+        <v>50.22647733333333</v>
       </c>
       <c r="H26">
-        <v>113.087503</v>
+        <v>150.679432</v>
       </c>
       <c r="I26">
-        <v>0.2248029461711713</v>
+        <v>0.2902518741886796</v>
       </c>
       <c r="J26">
-        <v>0.2338462136479208</v>
+        <v>0.2946459655911543</v>
       </c>
       <c r="K26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L26">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M26">
-        <v>0.2686276666666667</v>
+        <v>0.892201</v>
       </c>
       <c r="N26">
-        <v>0.805883</v>
+        <v>2.676603</v>
       </c>
       <c r="O26">
-        <v>0.01786048506058254</v>
+        <v>0.07139460452005281</v>
       </c>
       <c r="P26">
-        <v>0.02082634821468766</v>
+        <v>0.07757044177079274</v>
       </c>
       <c r="Q26">
-        <v>10.12614402001655</v>
+        <v>44.81211330327733</v>
       </c>
       <c r="R26">
-        <v>91.135296180149</v>
+        <v>403.309019729496</v>
       </c>
       <c r="S26">
-        <v>0.004015089661665145</v>
+        <v>0.0207224177689049</v>
       </c>
       <c r="T26">
-        <v>0.004870162674117844</v>
+        <v>0.02285581771688764</v>
       </c>
     </row>
   </sheetData>
